--- a/coordinates_sample/608敦煌郡/608敦煌郡.xlsx
+++ b/coordinates_sample/608敦煌郡/608敦煌郡.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brantiusxiong/GitHub/后汉书-郡国志/coordinates_sample/608敦煌郡/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11D2D8B6-0DDC-F848-AF5F-E37EEABC961E}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DABEA332-37AF-C34C-BDEE-D25294795A50}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14580" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14580" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="608(CHGIS)" sheetId="1" r:id="rId1"/>
     <sheet name="608(PUB)" sheetId="2" r:id="rId2"/>
+    <sheet name="608" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="32">
   <si>
     <t>county_han</t>
   </si>
@@ -113,12 +114,28 @@
     <t>X_COOR</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>X_COOR</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y_COOR</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOURCE</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHGIS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -135,6 +152,11 @@
       <name val="SimSun"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -478,7 +500,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="A2" sqref="A2:J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.15"/>
@@ -641,8 +663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4C32854-F3A6-5746-BD25-EC6DABEE0A20}">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="A1:J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -747,4 +769,181 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD6B9F63-483B-424D-AC3A-8C813AD55486}">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="A1:G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="14" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2">
+        <v>95.486711400000004</v>
+      </c>
+      <c r="D2">
+        <v>40.309705100000002</v>
+      </c>
+      <c r="E2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="1">
+        <v>60803</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3">
+        <v>94.698156299999994</v>
+      </c>
+      <c r="D3">
+        <v>40.295820999999997</v>
+      </c>
+      <c r="E3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="1">
+        <v>60805</v>
+      </c>
+      <c r="G3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>94.620090000000005</v>
+      </c>
+      <c r="D4">
+        <v>40.139110000000002</v>
+      </c>
+      <c r="E4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="1">
+        <v>60801</v>
+      </c>
+      <c r="G4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5">
+        <v>96.237480000000005</v>
+      </c>
+      <c r="D5">
+        <v>40.240549999999999</v>
+      </c>
+      <c r="E5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="1">
+        <v>60802</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6">
+        <v>96.847849999999994</v>
+      </c>
+      <c r="D6">
+        <v>40.483490000000003</v>
+      </c>
+      <c r="E6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="1">
+        <v>60804</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7">
+        <v>94.101140000000001</v>
+      </c>
+      <c r="D7">
+        <v>39.905320000000003</v>
+      </c>
+      <c r="E7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="1">
+        <v>60806</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>